--- a/data/trans_dic/Viv_Temp_insuf-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09753656239600778</v>
+        <v>0.09433767462924636</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1128710880805207</v>
+        <v>0.1105725596875545</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1123938385272758</v>
+        <v>0.1104402224456972</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1738891809816169</v>
+        <v>0.1705277556594432</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1794999898522647</v>
+        <v>0.1787298740392634</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1650500498873756</v>
+        <v>0.1637113943311094</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1282866342157774</v>
+        <v>0.1275609529021235</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.183611380254132</v>
+        <v>0.1838375193689668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1670563653209733</v>
+        <v>0.1664874162422901</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2081913218158954</v>
+        <v>0.2082350384874614</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.250717000261525</v>
+        <v>0.2483585402481204</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2183472870317874</v>
+        <v>0.2149222370973402</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.2438395871220718</v>
+        <v>0.2438395871220717</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.2415578980031077</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2426302148132898</v>
+        <v>0.2426302148132897</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1997747995194987</v>
+        <v>0.201518126972328</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2051597801627236</v>
+        <v>0.2071071994633058</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2143911689611393</v>
+        <v>0.2154639730539084</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.290187856845484</v>
+        <v>0.2931589383920944</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2774521646814904</v>
+        <v>0.2777077246857281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2748186466967013</v>
+        <v>0.2725082137644923</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.3018903590817705</v>
+        <v>0.3018903590817706</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.315320059494745</v>
+        <v>0.3153200594947451</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3090097859239497</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2391822308668823</v>
+        <v>0.2446641627200469</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2715546500891552</v>
+        <v>0.2739911174207443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2731725893186496</v>
+        <v>0.2768158386137902</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3620806295754191</v>
+        <v>0.3624388910516997</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3618354697001154</v>
+        <v>0.3629119002467028</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3499932882639808</v>
+        <v>0.3476518205943938</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2805964417230832</v>
+        <v>0.2769070978102091</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1870717725387379</v>
+        <v>0.1852194505844367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2402970436945326</v>
+        <v>0.2422593162744355</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3989020255452199</v>
+        <v>0.3938259365151405</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2727411443830762</v>
+        <v>0.262882578146398</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3125434843574616</v>
+        <v>0.3123006285572325</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.142436326720815</v>
+        <v>0.1455360066162782</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09989798956648208</v>
+        <v>0.09982657246729089</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.131939563689181</v>
+        <v>0.1327169309845221</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2331547030942116</v>
+        <v>0.2279381650575256</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1677704421150789</v>
+        <v>0.167855641023675</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.184638811306379</v>
+        <v>0.1854286909583545</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2920293579192521</v>
+        <v>0.2906248535346488</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3886466849300748</v>
+        <v>0.3857581731394351</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3480767539615195</v>
+        <v>0.3525430736362238</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.375862546015632</v>
+        <v>0.3713134863074357</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4512470306305417</v>
+        <v>0.4524743635126616</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4016548344047017</v>
+        <v>0.4043901453077228</v>
       </c>
     </row>
     <row r="25">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.8638340615259308</v>
+        <v>0.8638340615259307</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.8883159007204304</v>
+        <v>0.8883159007204302</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.8763248440696443</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8354931052871472</v>
+        <v>0.8344105012900663</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8679105707135749</v>
+        <v>0.8687034190597724</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8599327658733442</v>
+        <v>0.8598699082794971</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8885938253866305</v>
+        <v>0.8878580363013427</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9056834458952076</v>
+        <v>0.9064963721312846</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8912457708512639</v>
+        <v>0.8915976577440519</v>
       </c>
     </row>
     <row r="28">
@@ -1010,7 +1010,7 @@
         <v>0.4095199791310917</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.398320894686972</v>
+        <v>0.3983208946869721</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3688522342952918</v>
+        <v>0.3690403679398234</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3956173498595965</v>
+        <v>0.3951705881044274</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3875037269118186</v>
+        <v>0.3874425447406189</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4047048648953335</v>
+        <v>0.4045604902872216</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4244171990395632</v>
+        <v>0.4237315365396638</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4098017464990757</v>
+        <v>0.4099970890596111</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>31099</v>
+        <v>30079</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35674</v>
+        <v>34948</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>71360</v>
+        <v>70119</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>55444</v>
+        <v>54372</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>56733</v>
+        <v>56490</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>104791</v>
+        <v>103941</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>68075</v>
+        <v>67690</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>100343</v>
+        <v>100466</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>179943</v>
+        <v>179330</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>110476</v>
+        <v>110499</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>137015</v>
+        <v>135726</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>235191</v>
+        <v>231502</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>63127</v>
+        <v>63678</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>73115</v>
+        <v>73809</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>144151</v>
+        <v>144873</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>91697</v>
+        <v>92636</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>98879</v>
+        <v>98970</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>184781</v>
+        <v>183228</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>89250</v>
+        <v>91295</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>114323</v>
+        <v>115348</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>216937</v>
+        <v>219830</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>135109</v>
+        <v>135242</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>152330</v>
+        <v>152783</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>277943</v>
+        <v>276084</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>57299</v>
+        <v>56545</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>42824</v>
+        <v>42400</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>104077</v>
+        <v>104927</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>81457</v>
+        <v>80420</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>62435</v>
+        <v>60179</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>135369</v>
+        <v>135264</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>38439</v>
+        <v>39276</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>26348</v>
+        <v>26329</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>70406</v>
+        <v>70820</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>62921</v>
+        <v>61513</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>44249</v>
+        <v>44272</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>98527</v>
+        <v>98948</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>209030</v>
+        <v>208025</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>299218</v>
+        <v>296994</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>517131</v>
+        <v>523766</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>269037</v>
+        <v>265781</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>347413</v>
+        <v>348358</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>596731</v>
+        <v>600794</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>666784</v>
+        <v>665920</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>721521</v>
+        <v>722180</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1401177</v>
+        <v>1401075</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>709162</v>
+        <v>708575</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>752923</v>
+        <v>753599</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1452199</v>
+        <v>1452772</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1300780</v>
+        <v>1301443</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1477166</v>
+        <v>1475498</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2813426</v>
+        <v>2812982</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1427216</v>
+        <v>1426707</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1584700</v>
+        <v>1582139</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2975318</v>
+        <v>2976736</v>
       </c>
     </row>
     <row r="40">
